--- a/Millikan/Dati_Raccolti.xlsx
+++ b/Millikan/Dati_Raccolti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiaballico/Documents/Programmazione/Universita/Labo_2_Anno_ottica/Millikan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68604FC6-F9E7-C648-BD48-E924CB24F5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DCB4B-72C0-DF42-9271-E1DAC933188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="2" xr2:uid="{9EF375B5-70B8-E84A-A892-B2B16B1AD303}"/>
   </bookViews>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A075E98-9509-5942-BC62-3D59F220DD43}">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <v>4.5199999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" t="s">
@@ -1841,7 +1841,7 @@
         <v>8</v>
       </c>
       <c r="I23" s="3">
-        <v>4.59</v>
+        <v>4.79</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="3" t="s">
@@ -1893,21 +1893,21 @@
         <v>9</v>
       </c>
       <c r="F24">
-        <v>3.71</v>
+        <v>3.11</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
         <v>9</v>
       </c>
       <c r="I24">
-        <v>5.18</v>
+        <v>5.08</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" t="s">
         <v>9</v>
       </c>
       <c r="L24">
-        <v>3.46</v>
+        <v>3.26</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s">
@@ -9899,7 +9899,7 @@
         <v/>
       </c>
       <c r="I20">
-        <v>4.5199999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="J20" t="str">
         <v/>
@@ -10130,7 +10130,7 @@
         <v/>
       </c>
       <c r="I23">
-        <v>4.59</v>
+        <v>4.79</v>
       </c>
       <c r="J23" t="str">
         <v/>
@@ -10198,7 +10198,7 @@
         <v/>
       </c>
       <c r="F24">
-        <v>3.71</v>
+        <v>3.11</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -10207,7 +10207,7 @@
         <v/>
       </c>
       <c r="I24">
-        <v>5.18</v>
+        <v>5.08</v>
       </c>
       <c r="J24" t="str">
         <v/>
@@ -10216,7 +10216,7 @@
         <v/>
       </c>
       <c r="L24">
-        <v>3.46</v>
+        <v>3.26</v>
       </c>
       <c r="M24" t="str">
         <v/>
